--- a/medicine/Psychotrope/Buck_(cocktail)/Buck_(cocktail).xlsx
+++ b/medicine/Psychotrope/Buck_(cocktail)/Buck_(cocktail).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Un buck est un cocktail composé de ginger ale ou de bière de gingembre, de jus d'agrumes et de Gin ou tout autre liqueur. Les cocktails sont parfois appelés mules ressemblant au cocktail Moscow mule[1].
+Un buck est un cocktail composé de ginger ale ou de bière de gingembre, de jus d'agrumes et de Gin ou tout autre liqueur. Les cocktails sont parfois appelés mules ressemblant au cocktail Moscow mule.
 </t>
         </is>
       </c>
